--- a/なんぼや_20240710買取.xlsx
+++ b/なんぼや_20240710買取.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E241"/>
+  <dimension ref="A1:E591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6928,6 +6928,9441 @@
         </is>
       </c>
     </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>116610LN</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>1,100,000</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/ai011118/</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>16570</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>627,000</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/bv007987/</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>214270</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>693,000</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/ru008932/</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>ミルガウス</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>116400GV</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>792,000</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0101268/</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>デイトナ</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>116500LN</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2,310,000</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0101276/</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>GMTマスター ?</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>116710LN</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>1,056,000</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/by007297/</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>サブマリーナ ノンデイト</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>14060M</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>704,000</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0101511/</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>116610LN</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>1,056,000</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/ry012319/</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>16570</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>627,000</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0101673/</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>16613</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>858,000</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/ry012328/</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>214270</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>682,000</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/yp014035/</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>デイトナ</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>116500LN</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2,420,000</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/xp005895/</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>16610</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>737,000</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/ye009827/</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>214270</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>704,000</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/oz016537/</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>16613</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>924,000</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/fn016633/</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>216570</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>770,000</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/yv010498/</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>179174NGR</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>シェル</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>583,000</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/vx007754/</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>デイトナ</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>116500LN</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2,310,000</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/xh007381/</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>114060</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>902,000</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/vo004623/</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>116610LN</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>1,210,000</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/xp005922/</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>デイトナ</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>116500LN</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2,420,000</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/xh007388/</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>デイトナ</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>116500LN</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2,200,000</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/xh007390/</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>GMTマスター ?</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>126710BLNR</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>1,430,000</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/xh007391/</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>デイトナ</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>116520</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>1,980,000</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/xt003293/</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>216570</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>880,000</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0102547/</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>79174</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>青</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>286,000</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/vo004629/</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>116610LN</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>1,045,000</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/ad010728/</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>デイトナ</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>116500LN</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2,200,000</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/yp014074/</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>デイトナ</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>116500LN</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2,310,000</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/yp014075/</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>114270</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>550,000</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/oz016544/</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>グリーンサブマリーナ</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>116610LV</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>グリーン</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>1,540,000</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0102734/</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>デイトナ</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>116520</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>1,870,000</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0102758/</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>デイトナ</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>116503G</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>1,870,000</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0102768/</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>114270</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>528,000</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/hx020266/</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>16610LV</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>1,210,000</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0102859/</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>シードゥエラー</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>126600</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>1,320,000</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0102880/</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>16234</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>アイスブルー</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>440,000</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0102893/</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>126300</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>青</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>726,000</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/xh007397/</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>ミルガウス</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>116400GV</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>770,000</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/yc012660/</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>214270</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>682,000</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/sd015706/</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>デイトナ</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>116500LN</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>2,200,000</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/pg028338/</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>エアキング</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>14010</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>青</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>253,000</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/yz024167/</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>16234G</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>青グラデーション</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>484,000</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/yc012447/</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>デイトナ</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>116523</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>1,430,000</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/ya010905/</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>114270</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>539,000</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/xb005902/</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>エアキング</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>14000</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>319,000</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0094799/</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>ヨットマスター</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>16622</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>アイボリー</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>726,000</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/yc012449/</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>216570</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>880,000</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/dj014088/</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>ヨットマスター</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>126621</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>チョコレート</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>1,320,000</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/dj014089/</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>オイスターパーペチュアル</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>15200</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>アイスブルー</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>264,000</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0094942/</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>14270</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>451,000</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/hv019384/</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>デイトナ</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>116506A</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>シルバー</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>7,920,000</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/du014233/</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>16233</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>429,000</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0094983/</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>オイスターパーペチュアル</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>114300</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>ダークロジウム</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>495,000</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/xm005273/</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>GMTマスター ?</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>126710BLNR</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>1,320,000</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0095090/</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>ミルガウス</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>116400GV</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>693,000</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0095211/</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>116610LN</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>1,056,000</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0095291/</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>シードゥエラー</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>126600</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>1,320,000</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0095402/</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>16610</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>781,000</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/ai010891/</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>116610LN</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>1,045,000</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/ph018518/</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>16220</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>アイスブルー</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>385,000</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0095528/</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>オイスターパーペチュアル</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>176200</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>275,000</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/by007165/</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>179173G</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>アイボリーピラミッド</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>660,000</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/dp006002/</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>14060</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>671,000</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0095612/</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>16220</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>アイスブルー</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>352,000</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/ge017497/</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>69178G</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>アイボリーピラミッド</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>583,000</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/xg005555/</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>デイトナ</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>116515LN</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>2,750,000</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/ee012747/</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>オイスターパーペチュアル</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>77080</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>青</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>264,000</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/ye009703/</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>エアキング</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>14000</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>アイスブルー</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>253,000</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0095647/</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>チェリーニ</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>5441/9</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>ダイヤ</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>990,000</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0095691/</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>GMTマスター ?</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>16710</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>1,045,000</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/vm006879/</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>エアキング</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>14000</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>264,000</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0095770/</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>114270</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>495,000</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0095799/</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>16234</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>アイスブルー</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>363,000</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/vu007729/</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>214270</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>649,000</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0095812/</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>79174</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>242,000</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/ye009709/</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>シードゥエラー</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>126600</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>1,320,000</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/gg012585/</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>アイボリーピラミッド</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>990,000</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/vu007739/</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>216570</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>858,000</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/rt012248/</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>オイスターパーペチュアル</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>79160</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>231,000</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/pz028851/</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>グリーンサブマリーナ</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>116610LV</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>グリーン</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>1,320,000</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/by007169/</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>オイスターパーペチュアル</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>15210</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>アイスブルー</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>264,000</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0096118/</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>デイトナ</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>116500LN</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2,310,000</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/po020426/</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>オイスターパーペチュアル</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>116000</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>アイスブルー</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>418,000</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/iy016470/</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>ヨットマスター</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>16622</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>アイボリー</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>693,000</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0096158/</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>GMTマスター ?</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>16710</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>1,045,000</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0096163/</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>79174G</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>363,000</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0096202/</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>14060</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>682,000</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/bz007282/</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>16233</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>アイボリーピラミッド</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>429,000</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0096251/</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>69173</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>アイボリーピラミッド</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>264,000</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/bz007298/</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>オイスターパーペチュアル</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>116000</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>青</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>352,000</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/xi006375/</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>16570</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>616,000</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/gn019034/</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>16234</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>アイスブルー</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>363,000</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/gj021700/</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>116610LN</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>1,056,000</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0096364/</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>ヨットマスター</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>116680</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>1,650,000</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0096365/</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>スカイドゥエラー</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>326934</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>1,760,000</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0096489/</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>216570</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>858,000</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0096494/</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>GMTマスター ?</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>126711CHNR</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>1,760,000</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0096524/</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>デイトナ</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>116520</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>1,870,000</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0096525/</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>オイスターパーペチュアル</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>67480</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>ピンク</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>253,000</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0096537/</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>GMTマスター ?</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>16710</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>1,078,000</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0096548/</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>オイスターパーペチュアル</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>76080</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>165,000</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/wu005501/</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>16570</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>572,000</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/by007191/</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>ヨットマスター</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>16622</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>アイボリー</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>781,000</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/oz016398/</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>126331G</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>シェル</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>1,210,000</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0096689/</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>79173G</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>アイボリーピラミッド</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>319,000</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/vo004565/</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>GMTマスター ?</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>116710BLNR</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>1,320,000</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0096792/</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>デイトナ</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>116500LN</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2,420,000</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/xt003244/</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>116234</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>アイスブルー</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>605,000</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/xt003245/</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>デイトナ</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>116503</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>1,650,000</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/dp006014/</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>デイデイト</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>アイボリーピラミッド</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>1,540,000</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/yc012534/</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>デイトナ</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>116520</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>1,870,000</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/wb030852/</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>116610</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>1,012,000</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/wp010092/</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>シードゥエラー</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>16600</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>803,000</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/xv005686/</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>デイトジャスト?</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>116300</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>649,000</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0097077/</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>オイスターパーペチュアル</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>115234</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>473,000</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0097101/</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>116610LN</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>1,023,000</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0097116/</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>216570</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>880,000</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/iy016489/</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>ディープシー</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>116660</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>990,000</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/iy016490/</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>GMTマスター ?</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>116710LN</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>990,000</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/iy016491/</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>216570</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>803,000</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/fp019126/</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>オイスターパーペチュアル</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>114200</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>アイスブルー</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>396,000</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/yc012563/</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>179173G</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>アイスブルー</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>638,000</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/ya010962/</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>ヨットマスター</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>116622</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>青</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>1,023,000</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/xw003970/</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>ターノグラフ</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>116264</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>484,000</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0097350/</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>ヨットマスター</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>116622</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>ダークロジウム</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>1,100,000</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/fh024125/</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>オイスターパーペチュアル</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>76030</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>ピンク</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>154,000</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0097395/</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>16570</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>561,000</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/bz007355/</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>116234</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>アイスブルー</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>594,000</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/bu007423/</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>エアキング</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>116900</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>605,000</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/xg005636/</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>14270</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>517,000</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/ad010609/</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>116610LN</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>1,056,000</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0097711/</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>116610LN</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>1,067,000</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0097712/</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>14060</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>792,000</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/wn007835/</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>GMTマスター ?</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>116710LN</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>990,000</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/bw008411/</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>116231</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>792,000</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/fh024130/</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>シードゥエラー</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>126600</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>1,320,000</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0097785/</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>オイスターパーペチュアル</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>77080</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>231,000</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/yc012580/</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>ヨットマスター</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>268622</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>アイボリー</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>990,000</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0097800/</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>114060</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>902,000</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/ow007859/</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>16264</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>462,000</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/xs004871/</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>278288RBR</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>ダイヤ</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>3,630,000</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0098089/</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>16610LN</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>902,000</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0098110/</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>16570</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>561,000</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/tw012523/</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>16610</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>869,000</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/ow007861/</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>68278</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>913,000</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0098192/</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>16570</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>638,000</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0098194/</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>69178G</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>アイボリーピラミッド</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>605,000</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0098202/</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>グリーンサブマリーナ</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>16610LV</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>1,320,000</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0098226/</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>114270</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>561,000</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0098245/</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>ヨットマスター</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>16622</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>アイボリー</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>726,000</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0098250/</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>116610LN</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>902,000</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0098309/</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>16234</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>アイスブルー</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>407,000</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/pf021748/</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>14270</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>495,000</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/np018058/</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>179174</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>363,000</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0098382/</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>デイトナ</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>16523G</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>1,210,000</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0098422/</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>16610</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>693,000</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/wb030935/</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>デイトジャスト サンダーバード</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>16264</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>アイスブルー</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>484,000</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/pg028607/</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>16570</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>550,000</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/bj009031/</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>16570</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>616,000</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0098644/</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>14270</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>495,000</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0098648/</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>16610</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>704,000</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/yf010654/</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>69173G</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>シルバーホリコン</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>363,000</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/pf021754/</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>216570</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>902,000</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0098775/</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>16234</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>アイスブルー</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>352,000</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/gz018832/</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>14060M</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>671,000</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/ah008218/</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>1603</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>アイスブルー</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>275,000</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0098847/</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>214270</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>594,000</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/fn016525/</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>16013</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>アイボリーピラミッド</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>374,000</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/tw012541/</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>16613</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>803,000</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/sd015674/</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>デイトナ</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>116523G</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>1,540,000</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/ya010996/</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>16610</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>759,000</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/ya010997/</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>チェリーニ</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>4112</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>アイスブルー</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>198,000</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/xt003273/</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>ヨットマスター</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>116621</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>チョコレート</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>1,210,000</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/ai011019/</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>79173NG</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>ブラックシェル</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>484,000</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/xi006462/</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>16610</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>682,000</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0099097/</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>16234</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>アイスブルー</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>319,000</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0099098/</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>デイトナ</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>116520</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>1,870,000</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0099109/</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>16570</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>627,000</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0099190/</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>16234</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>アイスブルー</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>308,000</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/ac008085/</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>79173</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>青</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>220,000</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0099246/</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>16613</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>957,000</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0099470/</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>エアキング</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>116900</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>594,000</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0099483/</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>16233G</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>アイボリー</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>506,000</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/ay005864/</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>シードゥエラー</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>126600</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>1,320,000</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0099525/</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>オイスターパーペチュアル</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>79160</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>209,000</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/xm005405/</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>116233G</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>シルバーホリコン</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>792,000</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/wu005583/</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>126300</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>青</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>704,000</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0099702/</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>GMTマスター ?</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>16710</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>990,000</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0099863/</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>116334G</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>アイボリー</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>858,000</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/xi006475/</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>114060</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>880,000</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0099913/</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>116234</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>アイボリー</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>440,000</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0099936/</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>79174</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>アイボリー</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>220,000</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0100018/</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>114270</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>462,000</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0100097/</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>69173G</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>アイボリーピラミッド</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>253,000</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0100114/</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>14270</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>440,000</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/ax006366/</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>279174</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>ブラウン</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>539,000</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0100168/</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>エアキング</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>116900</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>594,000</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/xt003277/</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>グリーンサブマリーナ</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>116610LV</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>グリーン</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>1,430,000</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/xt003278/</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>グリーンサブマリーナ</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>116610LV</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>グリーン</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>1,430,000</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/xt003279/</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>チェリーニ</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>50519</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>青</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>968,000</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/ai011098/</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>ミルガウス</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>116400</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>627,000</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0100344/</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>エアキング</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>14000</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>253,000</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/vr004567/</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>16013</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>アイボリーピラミッド</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>374,000</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/ee012859/</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>GMTマスター ?</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>16710</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>913,000</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/xh007334/</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>シードゥエラー</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>126600</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>1,320,000</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/dd020608/</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>116300</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>649,000</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0100594/</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>16570</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>616,000</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/pg028695/</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>シードゥエラー</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>16600</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>693,000</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0100648/</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>GMTマスター ?</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>116710LN</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>979,000</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/xj005561/</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>1601</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>アイスブルー</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>242,000</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/fn016563/</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>エアキング</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>14010</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>ピンク</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>231,000</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/dp006085/</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>GMTマスター ?</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>116710LN</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>990,000</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0100796/</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>116610LV</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>グリーン</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>1,430,000</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0100798/</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>16234</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>ピンク</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>429,000</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/fn016569/</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>エアキング</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>14000M</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>青</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>286,000</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0100908/</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>1603</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>アイスブルー</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>220,000</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0084209/</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>デイトジャスト　レディース</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>79174NR</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>ブラックシェル</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>275,000</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/en013999/</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>179174NG</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>シェル</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>484,000</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/ye009541/</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>214270</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>594,000</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0086262/</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>1680</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>880,000</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/gs012101/</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>69174</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>231,000</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/pi020080/</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>1601</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>アイスブルー</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>231,000</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/hz013646/</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>デイトナ</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>116520</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>2,640,000</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/bw004455/</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>16014</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>アイスブルー</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>297,000</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/gn018109/</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>69173</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>242,000</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/mc016675/</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>オイスターパーペチュアル</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>176200</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>パープル</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>308,000</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/xt002789/</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>178243</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>アイボリーピラミッド</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>693,000</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/pg027134/</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>79179G</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>アイスブルー</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>660,000</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/pg027178/</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>デイデイト</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>18206A</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>アイスブルー</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>1,540,000</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/mc016834/</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>オイスターデイト</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>6694</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>121,000</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/vo004212/</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>GMTマスター ?</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>16700</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>946,000</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0072991/</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>178384</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>アイボリー</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>770,000</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/iy015658/</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>69174G</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>アイスブルー</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>253,000</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/yc012039/</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>グリーンサブマリーナ</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>16610LV</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>1,210,000</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/xw003547/</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>1601/4</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>アイスブルー</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>242,000</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/ya010494/</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>214270</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>693,000</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/ri007406/</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>チェリーニ</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>アイボリーピラミッド</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>132,000</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/bi005212/</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>116234</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>572,000</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/ye009445/</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>116610LN</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>1,078,000</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0083279/</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>グリーンサブマリーナ</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>116610LV</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>グリーン</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>1,430,000</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0083298/</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>114060</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>891,000</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0083299/</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>デイトジャスト　レディース</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>79174</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>ブラックシェル</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>330,000</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/gz018642/</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>オイスターパーペチュアル</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>15200</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>330,000</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/vu007309/</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>デイトナ</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>116523</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>1,210,000</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/xa007250/</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>16570</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>561,000</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/iw017106/</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>179171G</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>ピンク</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>660,000</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/wu005244/</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>126200</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>539,000</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/xi006101/</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>エアキング</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>14000M</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>青</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>264,000</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/fu027354/</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>69173G</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>286,000</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/ai010414/</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>216570</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>869,000</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/gm015756/</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>オイスターパーペチュアル</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>177200</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>363,000</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0083911/</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>114270</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>473,000</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/du014032/</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>14060M</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>704,000</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/nu024821/</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>79174G</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>シルバーホリコン</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>407,000</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/nu024822/</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>114270</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>539,000</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/hx019759/</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>116610LN</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>1,078,000</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0083948/</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>179161G</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>726,000</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/wp009783/</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>ヨットマスター</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>168622</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>アイボリー</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>583,000</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/bz007038/</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>デイトジャスト　レディース</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>69173</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>アイボリーピラミッド</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>231,000</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/ag008572/</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>デイトナ</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>116500LN</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>2,420,000</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/nu024827/</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>チェリーニ</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>4112</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>アイボリーピラミッド</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>209,000</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/tm023867/</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>214270</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>671,000</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0084237/</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>16233</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>319,000</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/bj008623/</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>16613LN</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>902,000</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/bu007072/</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>GMTマスター ?</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>16710</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>924,000</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0084300/</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>オイスターパーペチュアル　レディース</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>176200</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>パープル</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>253,000</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0084301/</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>116610LN</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>990,000</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/rv008403/</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>オイスターパーペチュアル</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>15200</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>319,000</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/yp013438/</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>14060</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>726,000</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/oz016173/</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>GMTマスター ?</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>126710BLRO</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>1,760,000</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0084470/</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>68273G</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>アイボリーピラミッド</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>440,000</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/wu005246/</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>ヨットマスター</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>116622</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>ダークロジウム</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>1,100,000</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/su016253/</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>オイスターデイト</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>6694</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>アイスブルー</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>154,000</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/wa011599/</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>デイデイト</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>18238</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>アイボリーピラミッド</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>1,210,000</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/iw017138/</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>116610LN</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>990,000</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0084906/</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>16570</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>583,000</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0084967/</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>スカイドゥエラー</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>バンキャトル</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>1,650,000</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0085025/</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>オイスターパーペチュアル</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>176200</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>286,000</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/xp005511/</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>16570</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>572,000</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/pa020156/</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>214270</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>594,000</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/xg005386/</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>179171G</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>チョコレート</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>748,000</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0085319/</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>179171G</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>ピンクホリコン</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>638,000</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/yz023555/</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>16234G</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>アイスブルー</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>462,000</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0085343/</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>エアキング</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>14010</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>286,000</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/yf010153/</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>オイスターパーペチュアル</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>116000</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>アイボリーピラミッド</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>396,000</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0085365/</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>デイトナ</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>116520</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>1,870,000</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/ac007703/</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>114060</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>869,000</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/ph018437/</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>オイスターパーペチュアル</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>116000</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>440,000</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/su016265/</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>オイスタークォーツ デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>279174G</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>シェル</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>880,000</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/mc017234/</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>114270</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>506,000</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0085411/</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>オイスタークォーツ デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>17014</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>297,000</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0085423/</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>スカイドゥエラー</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>326934</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>1,650,000</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/oz016194/</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>214270</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>638,000</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/oz016195/</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>シードゥエラー</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>16600</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>770,000</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0085465/</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>GMTマスター ?</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>116710LN</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>1,100,000</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/bw008185/</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>79173G</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>385,000</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0085599/</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>チェリーニ</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>4243</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>440,000</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0085608/</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>オイスターパーペチュアル</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>76080</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>ピンク</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>187,000</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/en014033/</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>デイトナ</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>116523</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>アイボリー</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>1,320,000</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0085668/</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>GMTマスター ?</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>116710BLNR</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>1,430,000</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/gn018743/</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>オイスターパーペチュアル</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>77080</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>253,000</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/pa020171/</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>126300</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>アイボリー</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>715,000</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/yy005276/</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>16610</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>660,000</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/yy005277/</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>69178G</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>アイボリーピラミッド</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>561,000</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0085776/</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>ヨットマスター</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>116680</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>1,540,000</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/po020287/</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>114270</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>473,000</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/mc017268/</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>216570</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>891,000</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/en014036/</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>デイトナ</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>116503</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>1,540,000</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/sd015477/</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>14060M</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>671,000</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/pa020179/</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>79174G</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>アイスブルー</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>374,000</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/iy016118/</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>エアキング</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>14000M</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>青</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>330,000</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0085962/</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>279160</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>アイボリー</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>484,000</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/gn018747/</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>116231G</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>黒ホリコン</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>935,000</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/vo004422/</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>14270</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>462,000</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/vu007445/</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>オイスターパーペチュアル</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>116000</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>アイスブルー</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>396,000</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/ry012000/</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>デイトナ</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>116520</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>1,870,000</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/sd015480/</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>16234G</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>アイスブルー</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>418,000</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0086110/</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>16613</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>792,000</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/ry012003/</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>16233</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>ホワイトピラミッド</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>429,000</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0086164/</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>デイトナ</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>16520</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>2,530,000</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/vx007288/</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>179173G</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>シャンパンホリコン</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>583,000</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/fh023648/</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>68273</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>アイボリーピラミッド</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>407,000</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0086282/</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>16234</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>アイスブルー</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>352,000</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/rt011942/</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>214270</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>682,000</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/du014047/</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>ヨットマスター</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>116621</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>ブラウン</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>1,210,000</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/vm006655/</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>1601</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>アイボリーピラミッド</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>253,000</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/fn015741/</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>16610</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>803,000</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/vr004421/</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>デイトナ</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>116500LN</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>2,200,000</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/by006980/</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>デイトナ</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>116500LN</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>2,420,000</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/pa020151/</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>16570</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>627,000</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/tp011540/</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>116201</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>770,000</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/vm006608/</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>デイトナ</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>116509</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>青</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>3,520,000</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/yp013465/</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>サブマリーナ</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>16610</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>781,000</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/ag008642/</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>デイトナ</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>116500LN</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>2,200,000</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/vm006661/</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>116234G</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>アイスブルー</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>737,000</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/bv001404/</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>エクスプローラー?</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>14270</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>1,320,000</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/yp010524/</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>デイトナ</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>116509</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>青</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>3,410,000</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/dp004479/</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>279383RBR</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>シェル</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>1,100,000</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/yy004839/</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>ヨットマスター</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>168623</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>517,000</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/pa020067/</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>デイトナ</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>116500LN</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>2,420,000</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/pa020150/</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>デイトナ</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>116520</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>1,870,000</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0083844/</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>コスモグラフデイトナ</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>116520</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>1,870,000</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/ex014092/</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>179171</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>ピンク</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>561,000</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0084047/</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>デイトジャスト　レディース</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>69178G</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>アイボリーピラミッド</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>572,000</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/a0084326/</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>デイトナ</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>116520</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>白</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>1,870,000</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/vo004392/</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>シードゥエラー ディープシー Dブルー</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>126660</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>Dブルー</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>1,430,000</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/vo004403/</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>69173G</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>赤グラデーション</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>451,000</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/fh023598/</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>68274G</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>アイスブルー</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>407,000</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/wp009809/</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>デイトジャスト</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>116334G</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>アイボリー</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>836,000</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>https://nanboya.com/search/item/xj005372/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
